--- a/joint_VDZP/joint_SHAP.xlsx
+++ b/joint_VDZP/joint_SHAP.xlsx
@@ -447,236 +447,236 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>h$_{q}$</t>
+          <t>$\eta_{q}$</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.001462519536706625</v>
+        <v>0.0005712164450514354</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$\eta_{s}$</t>
+          <t>h$_{q}$</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.0005749900331744691</v>
+        <v>0.0005092685619541944</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>$F_{q}$</t>
+          <t>h$_{p}^{3}$</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.0005490802374625468</v>
+        <v>0.0002665724171950647</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$\eta_{q}$</t>
+          <t>typ_3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.0003433739607424805</v>
+        <v>0.0001987505997335331</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>$F_{s}^{\text{SCF}}$</t>
+          <t>$F_{q}$</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.0003118742985397666</v>
+        <v>0.0001483020385026341</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$(F_{p}^{\text{SCF}})_{3}$</t>
+          <t>$\omega_{s}$</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.0002717615699059771</v>
+        <v>0.0001409262501046461</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>$\langle qq \vert qq \rangle$</t>
+          <t>$F_{q}^{\text{SCF}}$</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.0002190540260923733</v>
+        <v>0.000126987777637544</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>$(\eta_{r})_{2}$</t>
+          <t>$(\omega_{p})_{2}$</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.0002112293900446265</v>
+        <v>0.0001194029085847887</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>h$_{r}^{2}$</t>
+          <t>$\langle qq \vert qq \rangle$</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.0002056560776671633</v>
+        <v>0.0001134187050064887</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>$F_{q}^{\text{SCF}}$</t>
+          <t>$F_{s}^{\text{SCF}}$</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.0001758331781378662</v>
+        <v>0.0001062270578911291</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>h$_{s}$</t>
+          <t>$(F_{p}^{\text{SCF}})_{3}$</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.0001675351694458908</v>
+        <v>9.886509287853914e-05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>$(F_{r})_{2}$</t>
+          <t>$\omega_{q}$</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.0001461124321940374</v>
+        <v>9.5562334363539e-05</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>$(F_{r}^{\text{SCF}})_{3}$</t>
+          <t>$F_{s}$</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.000144953662061201</v>
+        <v>9.495055754411994e-05</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>$F_{s}$</t>
+          <t>$\langle ss \vert ss \rangle$</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0001437878317950032</v>
+        <v>9.311857504134465e-05</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>typ_1</t>
+          <t>$\eta_{s}$</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.0001270420368668047</v>
+        <v>9.117068641970425e-05</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert pq \rangle)_{2}$</t>
+          <t>typ_2</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.0001209335133297305</v>
+        <v>7.231382500456001e-05</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>h$_{p}^{3}$</t>
+          <t>$(\eta_{r})_{2}$</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.0001202351530876454</v>
+        <v>6.141072467744751e-05</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>$(\langle pp \vert pp \rangle)_{3}$</t>
+          <t>h$_{p}^{2}$</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.000119026814788445</v>
+        <v>5.935449343431169e-05</v>
       </c>
     </row>
     <row r="20">
@@ -689,72 +689,72 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.0001161867524046497</v>
+        <v>5.618346421482642e-05</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>h$_{rs}^{1}$</t>
+          <t>typ_1</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.0001063836878944175</v>
+        <v>4.988854204222279e-05</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>typ_2</t>
+          <t>h$_{qs}$</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>9.365536203699005e-05</v>
+        <v>4.947130717879484e-05</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>h$_{p}^{0}$</t>
+          <t>$(\langle pp \vert pp \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>7.857573961609698e-05</v>
+        <v>4.773405021214577e-05</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert pq \rangle)_{3}$</t>
+          <t>h$_{s}$</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>7.564225121064998e-05</v>
+        <v>4.624497545510198e-05</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>typ_3</t>
+          <t>$(\langle rs\vert rs \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>7.395807376054486e-05</v>
+        <v>3.964292770691604e-05</v>
       </c>
     </row>
     <row r="26">
@@ -767,618 +767,618 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>7.025593565015673e-05</v>
+        <v>3.852401247782259e-05</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>$(F_{p}^{\text{SCF}})_{2}$</t>
+          <t>$(F_{r})_{2}$</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>6.730863922671862e-05</v>
+        <v>3.753249175250222e-05</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>h$_{rs}^{2}$</t>
+          <t>$(\langle rr \vert rr \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5.817506382837729e-05</v>
+        <v>3.666642495998347e-05</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>h$_{qs}$</t>
+          <t>$(\langle rs \vert sr \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5.355570031809842e-05</v>
+        <v>3.602711693352942e-05</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>h$_{p}^{1}$</t>
+          <t>$(\langle pp \vert pp \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4.797369722699776e-05</v>
+        <v>3.595466024586693e-05</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>h$_{pr}^{2}$</t>
+          <t>$(\omega_{r})_{3}$</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4.780487313112293e-05</v>
+        <v>3.490279153323541e-05</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>$(F_{r}^{\text{SCF}})_{2}$</t>
+          <t>FA$_{qs}$</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4.528865124338275e-05</v>
+        <v>3.282284121393533e-05</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>h$_{r}^{3}$</t>
+          <t>$(F_{r})_{3}$</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4.507562784242112e-05</v>
+        <v>3.123937415798263e-05</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>h$_{r}^{0}$</t>
+          <t>$(\langle pq \vert pq \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4.502424800030721e-05</v>
+        <v>3.121889543281756e-05</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>$(\langle rs \vert sr \rangle)_{2}$</t>
+          <t>$(F_{r}^{\text{SCF}})_{3}$</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4.335379642550224e-05</v>
+        <v>3.112580448309247e-05</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>$\langle ss \vert ss \rangle$</t>
+          <t>$(\langle pq \vert pq \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4.168712763532117e-05</v>
+        <v>3.080600005329982e-05</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert qp \rangle)_{2}$</t>
+          <t>h$_{p}^{1}$</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4.05495121273749e-05</v>
+        <v>3.075506618704023e-05</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>h$_{p}^{2}$</t>
+          <t>$(F_{p})_{3}$</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3.018806972363727e-05</v>
+        <v>2.99501933229107e-05</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert qp \rangle)_{0}$</t>
+          <t>$(\langle pq \vert qp \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2.964346433242273e-05</v>
+        <v>2.813242160816687e-05</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert qp \rangle)_{3}$</t>
+          <t>h$_{r}^{1}$</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2.942806132655041e-05</v>
+        <v>2.762307239907337e-05</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>$(\langle rr \vert rr \rangle)_{2}$</t>
+          <t>h$_{rs}^{1}$</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2.899230012762074e-05</v>
+        <v>2.74422041503721e-05</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>$(\langle rs\vert rs \rangle)_{2}$</t>
+          <t>h$_{r}^{2}$</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2.716861193683977e-05</v>
+        <v>2.736013531127778e-05</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>$(\langle rs \vert sr \rangle)_{1}$</t>
+          <t>$(F_{r}^{\text{SCF}})_{2}$</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2.715769994894159e-05</v>
+        <v>2.625968427772038e-05</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>FI$_{qs}$</t>
+          <t>$(F_{r}^{\text{SCF}})_{1}$</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2.688632847522621e-05</v>
+        <v>2.606705168183985e-05</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>$(F_{r})_{3}$</t>
+          <t>$(\langle rr \vert rr \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2.522760666241886e-05</v>
+        <v>2.56712224521414e-05</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert qp \rangle)_{1}$</t>
+          <t>$(F_{p}^{\text{SCF}})_{2}$</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2.371315359678553e-05</v>
+        <v>2.563755675384779e-05</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>$(F_{r}^{\text{SCF}})_{1}$</t>
+          <t>$(\omega_{r})_{0}$</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2.360888176176038e-05</v>
+        <v>2.525296157987369e-05</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>FA$_{qs}$</t>
+          <t>$(\langle pq \vert qp \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2.319308972272155e-05</v>
+        <v>2.46281303615749e-05</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>$(\langle pp \vert pp \rangle)_{2}$</t>
+          <t>$(F_{p})_{2}$</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2.125452143925543e-05</v>
+        <v>2.424178236875357e-05</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>103</v>
+        <v>7</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>$(\langle rs\vert rs \rangle)_{3}$</t>
+          <t>h$_{pq}^{3}$</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2.108230722269959e-05</v>
+        <v>2.382790946067227e-05</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>$(\langle rr \vert rr \rangle)_{3}$</t>
+          <t>$(\langle rs \vert sr \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2.096677711983305e-05</v>
+        <v>2.38275166351189e-05</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>h$_{pr}^{3}$</t>
+          <t>h$_{p}^{0}$</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2.012741483821822e-05</v>
+        <v>2.339592460154018e-05</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>$(F_{p}^{\text{SCF}})_{1}$</t>
+          <t>FI$_{qs}$</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2.005863796804895e-05</v>
+        <v>2.309280312452189e-05</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>$(F_{p})_{3}$</t>
+          <t>$(F_{p})_{1}$</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1.864640097524668e-05</v>
+        <v>2.282168006438257e-05</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>h$_{r}^{1}$</t>
+          <t>h$_{r}^{0}$</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1.769102922249186e-05</v>
+        <v>2.280468483253981e-05</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert pq \rangle)_{1}$</t>
+          <t>$(\langle pp \vert pp \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1.698466583263251e-05</v>
+        <v>2.05251382776346e-05</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>$(\langle rs\vert rs \rangle)_{1}$</t>
+          <t>$(\langle pq \vert qp \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1.687298022340001e-05</v>
+        <v>1.938206081730629e-05</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>$(F_{p}^{\text{SCF}})_{0}$</t>
+          <t>$(\langle pq \vert pq \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1.585188051676658e-05</v>
+        <v>1.920748744899575e-05</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>$(\langle rr \vert rr \rangle)_{1}$</t>
+          <t>$(\langle pp \vert pp \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1.529477980072066e-05</v>
+        <v>1.893238504940396e-05</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>$(F_{p})_{2}$</t>
+          <t>$(\eta_{r})_{1}$</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1.46430697432677e-05</v>
+        <v>1.878618326236788e-05</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert pq \rangle)_{0}$</t>
+          <t>$(\langle rs\vert rs \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1.448712711659057e-05</v>
+        <v>1.790221542855575e-05</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>h$_{pr}^{0}$</t>
+          <t>$(\langle pq \vert qp \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1.33882672467656e-05</v>
+        <v>1.789435037177068e-05</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>h$_{pq}^{1}$</t>
+          <t>h$_{r}^{3}$</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1.306215904562971e-05</v>
+        <v>1.769620611131446e-05</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>$(F_{p})_{0}$</t>
+          <t>$(F_{r}^{\text{SCF}})_{0}$</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1.265867275725574e-05</v>
+        <v>1.729274394901658e-05</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>h$_{pq}^{3}$</t>
+          <t>$(\langle rs \vert sr \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1.125565107870624e-05</v>
+        <v>1.709633590312253e-05</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>$(\eta_{r})_{3}$</t>
+          <t>$(\langle pq \vert pq \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1.035765931271799e-05</v>
+        <v>1.644003933318889e-05</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>$(F_{r}^{\text{SCF}})_{0}$</t>
+          <t>$(F_{p})_{0}$</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>9.304158775638763e-06</v>
+        <v>1.568861721924883e-05</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>$(\langle rs \vert sr \rangle)_{0}$</t>
+          <t>h$_{pr}^{3}$</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>8.568086348870847e-06</v>
+        <v>1.54440206530807e-05</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>h$_{rs}^{0}$</t>
+          <t>h$_{rs}^{2}$</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>8.135799809788702e-06</v>
+        <v>1.461458042525553e-05</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>$(\langle rs\vert rs \rangle)_{0}$</t>
+          <t>$(F_{r})_{0}$</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>7.847778539383389e-06</v>
+        <v>1.305412407253161e-05</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert rs \rangle)_{2}$</t>
+          <t>$(\omega_{p})_{3}$</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>7.598966685600248e-06</v>
+        <v>1.244969735381753e-05</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>h$_{pr}^{1}$</t>
+          <t>$(\langle rs\vert rs \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>6.75741234801865e-06</v>
+        <v>1.228847567089701e-05</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>$(\langle pp \vert pp \rangle)_{1}$</t>
+          <t>$(\langle rs\vert rs \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>6.044982405579263e-06</v>
+        <v>1.161995164219015e-05</v>
       </c>
     </row>
     <row r="74">
@@ -1391,423 +1391,423 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5.982747571517245e-06</v>
+        <v>1.148190678628463e-05</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>h$_{rs}^{3}$</t>
+          <t>h$_{pq}^{1}$</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5.100012941718254e-06</v>
+        <v>1.083121344558232e-05</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>h$_{pq}^{2}$</t>
+          <t>$(\omega_{r})_{2}$</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4.773068955242118e-06</v>
+        <v>1.049905637921678e-05</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>$(F_{r})_{1}$</t>
+          <t>$(\eta_{r})_{3}$</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4.699637901051001e-06</v>
+        <v>1.039640542363107e-05</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>$(\eta_{r})_{1}$</t>
+          <t>h$_{pq}^{2}$</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4.525473640156316e-06</v>
+        <v>1.028043926557602e-05</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert rs \rangle)_{0}$</t>
+          <t>$(\langle rr \vert rr \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4.176855379687719e-06</v>
+        <v>1.009943513479439e-05</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>$(\langle pp \vert pp \rangle)_{0}$</t>
+          <t>$(F_{p}^{\text{SCF}})_{1}$</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4.117229069085896e-06</v>
+        <v>1.008309242009513e-05</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>$(\langle rr \vert rr \rangle)_{0}$</t>
+          <t>h$_{pr}^{2}$</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4.078062719916383e-06</v>
+        <v>1.000151927473639e-05</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert rs \rangle)_{1}$</t>
+          <t>h$_{pr}^{1}$</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3.696291683483256e-06</v>
+        <v>9.653016193326472e-06</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>h$_{pq}^{0}$</t>
+          <t>h$_{rs}^{3}$</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3.643408815111234e-06</v>
+        <v>8.961212076465118e-06</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>$(F_{p})_{1}$</t>
+          <t>$(F_{r})_{1}$</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3.537503531561617e-06</v>
+        <v>8.403478158646508e-06</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>$(\eta_{p})_{1}$</t>
+          <t>$(\langle pq \vert rs \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3.132649332603777e-06</v>
+        <v>8.072947474761474e-06</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>$(\eta_{r})_{0}$</t>
+          <t>$(\langle rr \vert rr \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2.925294167478674e-06</v>
+        <v>7.869325912249259e-06</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>$(\eta_{p})_{3}$</t>
+          <t>h$_{pr}^{0}$</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2.815267945759e-06</v>
+        <v>6.671785723817099e-06</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>F$_{qs}$</t>
+          <t>$(\langle pq \vert rs \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2.673825923717697e-06</v>
+        <v>6.601964229739472e-06</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>$(F_{r})_{0}$</t>
+          <t>$(F_{p}^{\text{SCF}})_{0}$</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2.590324341964424e-06</v>
+        <v>6.443501942838109e-06</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>$(\eta_{p})_{2}$</t>
+          <t>h$_{pq}^{0}$</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>6.178914795597147e-07</v>
+        <v>6.079469619905484e-06</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{1}$</t>
+          <t>$(\eta_{r})_{0}$</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3.340743653741901e-07</v>
+        <v>5.937502604345337e-06</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>$(\eta_{p})_{0}$</t>
+          <t>h$_{rs}^{0}$</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>8.579969206826452e-08</v>
+        <v>5.684242364538846e-06</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>$\omega_{s}$</t>
+          <t>F$_{qs}$</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5.216091565476678e-08</v>
+        <v>5.305605511377007e-06</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{2}$</t>
+          <t>$(\omega_{r})_{1}$</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4.84422090696254e-08</v>
+        <v>4.947380449387023e-06</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{1}$</t>
+          <t>$(\omega_{p})_{1}$</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4.485132884152471e-08</v>
+        <v>4.87634493495065e-06</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{0}$</t>
+          <t>$(\omega_{p})_{0}$</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3.910979604555923e-08</v>
+        <v>4.81577308983369e-06</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{3}$</t>
+          <t>$(\eta_{p})_{3}$</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3.002200226954695e-08</v>
+        <v>4.73572484716914e-06</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{0}$</t>
+          <t>$(\langle pq \vert rs \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2.87996205913181e-08</v>
+        <v>4.615730833815228e-06</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{3}$</t>
+          <t>$(\eta_{p})_{1}$</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2.803685596436716e-08</v>
+        <v>4.223464173363016e-06</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{1}$</t>
+          <t>$(\eta_{p})_{0}$</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2.426578508760828e-08</v>
+        <v>1.739747049449332e-06</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{0}$</t>
+          <t>$(\eta_{p})_{2}$</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2.10947035494082e-08</v>
+        <v>1.70534896387286e-06</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{2}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>1.844049655844919e-08</v>
+        <v>1.115650239811227e-06</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>$\omega_{q}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>1.329188450633035e-08</v>
+        <v>1.048943193052814e-06</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>$\mathbf{b}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>1.088043640639612e-08</v>
+        <v>1.013530232565927e-06</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{3}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>6.614469990148956e-09</v>
+        <v>9.947743591866975e-07</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{2}$</t>
+          <t>$\mathbf{b}$</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>2.157050908280033e-09</v>
+        <v>4.220491469324867e-07</v>
       </c>
     </row>
   </sheetData>
